--- a/Bits/Sem1/Introduction to Statistical Methods/ITSM-Slide1.xlsx
+++ b/Bits/Sem1/Introduction to Statistical Methods/ITSM-Slide1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Learn\Bits\Sem1\Introduction to Statistical Methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubham.gupta/Documents/Learn/Bits/Sem1/Introduction to Statistical Methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DEB17E-B5E7-4DF9-AF07-9FB7F28C8377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA1CBA-C6FE-9946-AD37-262FADAF26C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{AF81D34D-167A-4A35-ACA2-5B65BEDCFA71}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="23820" activeTab="3" xr2:uid="{AF81D34D-167A-4A35-ACA2-5B65BEDCFA71}"/>
   </bookViews>
   <sheets>
     <sheet name="Page51" sheetId="1" r:id="rId1"/>
@@ -534,16 +534,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CB4F6F-4B72-4471-8DD9-101090F09A31}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -565,7 +565,7 @@
         <v>64.89</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>55.3</v>
       </c>
@@ -588,7 +588,7 @@
         <v>60.88</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>55.3</v>
       </c>
@@ -608,7 +608,7 @@
         <v>7.8025636812524644</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>55.3</v>
       </c>
@@ -621,7 +621,7 @@
         <v>91.968100000000064</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>55.9</v>
       </c>
@@ -645,7 +645,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>55.9</v>
       </c>
@@ -668,7 +668,7 @@
         <v>63.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>55.9</v>
       </c>
@@ -692,7 +692,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55.9</v>
       </c>
@@ -705,7 +705,7 @@
         <v>80.820100000000039</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>56.1</v>
       </c>
@@ -725,7 +725,7 @@
         <v>12.300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>56.1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>56.1</v>
       </c>
@@ -768,7 +768,7 @@
         <v>88.15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>56.1</v>
       </c>
@@ -784,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>56.1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>77.264099999999985</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>56.1</v>
       </c>
@@ -810,7 +810,7 @@
         <v>77.264099999999985</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>56.8</v>
       </c>
@@ -823,7 +823,7 @@
         <v>65.448100000000053</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>56.8</v>
       </c>
@@ -836,7 +836,7 @@
         <v>65.448100000000053</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>57</v>
       </c>
@@ -849,7 +849,7 @@
         <v>62.252100000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>57</v>
       </c>
@@ -862,7 +862,7 @@
         <v>62.252100000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>57</v>
       </c>
@@ -875,7 +875,7 @@
         <v>62.252100000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>57.8</v>
       </c>
@@ -888,7 +888,7 @@
         <v>50.268100000000047</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>57.8</v>
       </c>
@@ -901,7 +901,7 @@
         <v>50.268100000000047</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>57.8</v>
       </c>
@@ -914,7 +914,7 @@
         <v>50.268100000000047</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>57.9</v>
       </c>
@@ -927,7 +927,7 @@
         <v>48.860100000000031</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>57.9</v>
       </c>
@@ -940,7 +940,7 @@
         <v>48.860100000000031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>57.9</v>
       </c>
@@ -953,7 +953,7 @@
         <v>48.860100000000031</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>58.8</v>
       </c>
@@ -966,7 +966,7 @@
         <v>37.08810000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>58.8</v>
       </c>
@@ -979,7 +979,7 @@
         <v>37.08810000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>58.8</v>
       </c>
@@ -992,7 +992,7 @@
         <v>37.08810000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>59.8</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>25.908100000000033</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>59.8</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>25.908100000000033</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>59.8</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>25.908100000000033</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>62.2</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>7.236099999999988</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>62.2</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>7.236099999999988</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>63.8</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>1.1881000000000075</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>63.8</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1.1881000000000075</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>63.8</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>1.1881000000000075</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>63.9</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>0.98010000000000397</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>63.9</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0.98010000000000397</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>63.9</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0.98010000000000397</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>64.7</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>3.6099999999999133E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>64.7</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>3.6099999999999133E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>64.7</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>3.6099999999999133E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>65.099999999999994</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>4.409999999999737E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>65.099999999999994</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>4.409999999999737E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>65.099999999999994</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>4.409999999999737E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>65.3</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>0.1680999999999972</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>65.3</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0.1680999999999972</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>65.3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0.1680999999999972</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>65.3</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0.1680999999999972</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>67.400000000000006</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>6.3001000000000253</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>67.400000000000006</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>6.3001000000000253</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>67.400000000000006</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>6.3001000000000253</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>67.400000000000006</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>6.3001000000000253</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>68.7</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>14.516100000000018</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>68.7</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>14.516100000000018</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>68.7</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>14.516100000000018</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>68.7</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>14.516100000000018</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>69</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>16.892099999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>70.400000000000006</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>30.360100000000056</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>70.400000000000006</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>30.360100000000056</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>71.2</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>39.816100000000027</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>71.2</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>39.816100000000027</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>71.2</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>39.816100000000027</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>73</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>65.772099999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>73</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>65.772099999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>73.099999999999994</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>67.4040999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>73.099999999999994</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>67.4040999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>74.599999999999994</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>94.284099999999881</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>74.599999999999994</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>94.284099999999881</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>74.599999999999994</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>94.284099999999881</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>74.599999999999994</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>94.284099999999881</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>79.3</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>207.64809999999991</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>79.3</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>207.64809999999991</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>79.3</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>207.64809999999991</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>79.3</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>207.64809999999991</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>83</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>327.97209999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>83</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>327.97209999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>83</v>
       </c>
@@ -1652,20 +1652,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D943A183-632B-470D-AE34-2B67A8B1A300}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0.64000000000000112</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>153.43157894736842</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>12.386750136632628</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>23</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>3.9999999999999716E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>25</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>3.2400000000000024</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>19</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>29</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>29</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>33.640000000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>282.24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>56</v>
       </c>
@@ -2032,18 +2032,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FA68D9-B951-4F6A-9B2C-6CD845E7BA26}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>85</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>110</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>120</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>170</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>180</v>
       </c>
@@ -2111,32 +2111,32 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>460</v>
       </c>
@@ -2153,21 +2153,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97427146-F8FE-4063-A5D6-7482E57F260B}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>48</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>64</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>70</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>73</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>73</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>74</v>
       </c>
@@ -2246,17 +2246,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>79</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>79</v>
       </c>
@@ -2288,12 +2288,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>80</v>
       </c>
@@ -2304,37 +2304,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>82</v>
       </c>
